--- a/questions_AZ900.xlsx
+++ b/questions_AZ900.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_1.jpg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -879,37 +879,49 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DRAG DROP -&lt;br/&gt;Your company intends to subscribe to an Azure support plan.&lt;br/&gt;The support plan must allow for new support requests to be opened.&lt;br/&gt;Which of the following are support plans that will allow this? Answer by dragging the correct option from the list to the answer area.&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="./page1_files/0000300001.png"/&gt;&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company is planning to migrate all their virtual machines to an Azure pay-as-you-go subscription. The virtual machines are currently hosted on the Hyper-V hosts in a data center.&lt;br/&gt;You are required make sure that the intended Azure solution uses the correct expenditure model.&lt;br/&gt;Solution: You should recommend the use of the scalable expenditure model.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_1.jpg</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Your company has datacenters in Los Angeles and New York. The company has a Microsoft Azure subscription.&lt;br/&gt;You are configuring the two datacenters as geo-clustered sites for site resiliency.&lt;br/&gt;You need to recommend an Azure storage redundancy option.&lt;br/&gt;You have the following data storage requirements:&lt;br/&gt;✑ Data must be stored on multiple nodes.&lt;br/&gt;✑ Data must be stored on nodes in separate geographic locations.&lt;br/&gt;✑ Data can be read from the secondary location as well as from the primary location&lt;br/&gt;Which of the following Azure stored redundancy options should you recommend?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company is planning to migrate all their virtual machines to an Azure pay-as-you-go subscription. The virtual machines are currently hosted on the Hyper-V hosts in a data center.&lt;br/&gt;You are required make sure that the intended Azure solution uses the correct expenditure model.&lt;br/&gt;Solution: You should recommend the use of the operational expenditure model.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -919,7 +931,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -929,33 +941,25 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Geo-redundant storage</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Read-only geo-redundant storage</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Zone-redundant storage</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Locally redundant storage</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's Azure subscription includes a Basic support plan.&lt;br/&gt;They would like to request an assessment of an Azure environment's design from Microsoft. This is, however, not supported by the existing plan.&lt;br/&gt;You want to make sure that the company subscribes to a support plan that allows this functionality, while keeping expenses to a minimum.&lt;br/&gt;Solution: You recommend that the company subscribes to the Professional Direct support plan.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are required to deploy an Artificial Intelligence (AI) solution in Azure.&lt;br/&gt;You want to make sure that you are able to build, test, and deploy predictive analytics for the solution.&lt;br/&gt;Solution: You should make use of Azure Cosmos DB.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -989,11 +993,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying Azure virtual machines for your company.&lt;br/&gt;You need to make use of the appropriate cloud deployment solution.&lt;br/&gt;Solution: You should make use of Software as a Service (SaaS).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's Active Directory forest includes thousands of user accounts.&lt;br/&gt;You have been informed that all network resources will be migrated to Azure. Thereafter, the on-premises data center will be retired.&lt;br/&gt;You are required to employ a strategy that reduces the effect on users, once the planned migration has been completed.&lt;br/&gt;Solution: You plan to sync all the Active Directory user accounts to Azure Active Directory (Azure AD).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1003,7 +1007,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1027,11 +1031,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying Azure virtual machines for your company.&lt;br/&gt;You need to make use of the appropriate cloud deployment solution.&lt;br/&gt;Solution: You should make use of Platform as a Service (PaaS).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are required to deploy an Artificial Intelligence (AI) solution in Azure.&lt;br/&gt;You want to make sure that you are able to build, test, and deploy predictive analytics for the solution.&lt;br/&gt;Solution: You should make use of Azure Machine Learning Studio.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1041,7 +1045,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1065,11 +1069,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying Azure virtual machines for your company.&lt;br/&gt;You need to make use of the appropriate cloud deployment solution.&lt;br/&gt;Solution: You should make use of Infrastructure as a Service (IaaS).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's infrastructure includes a number of business units that each need a large number of various Azure resources for everyday operation.&lt;br/&gt;The resources required by each business unit are identical.&lt;br/&gt;You are required to sanction a strategy to create Azure resources automatically.&lt;br/&gt;Solution: You recommend that the Azure API Management service be included in the strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1079,7 +1083,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1103,11 +1107,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Your developers have created 10 web applications that must be host on Azure.&lt;br/&gt;You need to determine which Azure web tier plan to host the web apps. The web tier plan must meet the following requirements:&lt;br/&gt;✑ The web apps will use custom domains.&lt;br/&gt;✑ The web apps each require 10 GB of storage.&lt;br/&gt;✑ The web apps must each run in dedicated compute instances.&lt;br/&gt;✑ Load balancing between instances must be included.&lt;br/&gt;✑ Costs must be minimized.&lt;br/&gt;Which web tier plan should you use?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's infrastructure includes a number of business units that each need a large number of various Azure resources for everyday operation.&lt;br/&gt;The resources required by each business unit are identical.&lt;br/&gt;You are required to sanction a strategy to create Azure resources automatically.&lt;br/&gt;Solution: You recommend that management groups be included in the strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1117,7 +1121,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1127,33 +1131,25 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Shared</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are planning to migrate a company to Azure. Each of the company's numerous divisions will have an administrator in place to manage the Azure resources used by their respective division.&lt;br/&gt;You want to make sure that the Azure deployment you employ allows for Azure to be segmented for the divisions, while keeping administrative effort to a minimum.&lt;br/&gt;Solution: You plan to make use of several Azure Active Directory (Azure AD) directories.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's infrastructure includes a number of business units that each need a large number of various Azure resources for everyday operation.&lt;br/&gt;The resources required by each business unit are identical.&lt;br/&gt;You are required to sanction a strategy to create Azure resources automatically.&lt;br/&gt;Solution: You recommend that the Azure Resource Manager templates be included in the strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1163,7 +1159,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1187,11 +1183,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Your developers have created a portal web app for users in the Miami branch office. The web app will be publicly accessible and used by the Miami users to retrieve customer and product information. The web app is currently running in an on-premises test environment.&lt;br/&gt;You plan to host the web app on Azure.&lt;br/&gt;You need to determine which Azure web tier plan to host the web app. The web tier plan must meet the following requirements:&lt;br/&gt;✑ The website will use the miami.weyland.com URL.&lt;br/&gt;✑ The website will be deployed to two instances.&lt;br/&gt;✑ SSL support must be included.&lt;br/&gt;✑ The website requires 12 GB of storage.&lt;br/&gt;✑ Costs must be minimized.&lt;br/&gt;Which web tier plan should you use?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying a critical LOB application, which will be installed on a virtual machine, to Azure.&lt;br/&gt;You are informed that the application deployment strategy should allow for a guaranteed availability of 99.99 percent. You need to make sure that the strategy requires as little virtual machines and availability zones as possible.&lt;br/&gt;Solution: You include two virtual machines and one availability zone in your strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1201,7 +1197,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1211,33 +1207,25 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Shared</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company is planning to migrate all their virtual machines to an Azure pay-as-you-go subscription. The virtual machines are currently hosted on the Hyper-V hosts in a data center.&lt;br/&gt;You are required make sure that the intended Azure solution uses the correct expenditure model.&lt;br/&gt;Solution: You should recommend the use of the elastic expenditure model.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying a critical LOB application, which will be installed on a virtual machine, to Azure.&lt;br/&gt;You are informed that the application deployment strategy should allow for a guaranteed availability of 99.99 percent. You need to make sure that the strategy requires as little virtual machines and availability zones as possible.&lt;br/&gt;Solution: You include one virtual machine and two availability zones in your strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1271,11 +1259,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company is planning to migrate all their virtual machines to an Azure pay-as-you-go subscription. The virtual machines are currently hosted on the Hyper-V hosts in a data center.&lt;br/&gt;You are required make sure that the intended Azure solution uses the correct expenditure model.&lt;br/&gt;Solution: You should recommend the use of the scalable expenditure model.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying a critical LOB application, which will be installed on a virtual machine, to Azure.&lt;br/&gt;You are informed that the application deployment strategy should allow for a guaranteed availability of 99.99 percent. You need to make sure that the strategy requires as little virtual machines and availability zones as possible.&lt;br/&gt;Solution: You include two virtual machines and two availability zones in your strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1285,7 +1273,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1309,11 +1297,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company is planning to migrate all their virtual machines to an Azure pay-as-you-go subscription. The virtual machines are currently hosted on the Hyper-V hosts in a data center.&lt;br/&gt;You are required make sure that the intended Azure solution uses the correct expenditure model.&lt;br/&gt;Solution: You should recommend the use of the operational expenditure model.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's developers intend to deploy a large number of custom virtual machines on a weekly basis. They will also be removing these virtual machines during the same week it was deployed. Sixty percent of the virtual machines have Windows Server 2016 installed, while the other forty percent has Ubuntu Linux installed.&lt;br/&gt;You are required to make sure that the administrative effort, needed for this process, is reduced by employing a suitable Azure service.&lt;br/&gt;Solution: You recommend the use of Microsoft Managed Desktop.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1323,7 +1311,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1347,11 +1335,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are required to deploy an Artificial Intelligence (AI) solution in Azure.&lt;br/&gt;You want to make sure that you are able to build, test, and deploy predictive analytics for the solution.&lt;br/&gt;Solution: You should make use of Azure Cosmos DB.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's developers intend to deploy a large number of custom virtual machines on a weekly basis. They will also be removing these virtual machines during the same week it was deployed. Sixty percent of the virtual machines have Windows Server 2016 installed, while the other forty percent has Ubuntu Linux installed.&lt;br/&gt;You are required to make sure that the administrative effort, needed for this process, is reduced by employing a suitable Azure service.&lt;br/&gt;Solution: You recommend the use of Azure Reserved Virtual Machines (VM) Instances.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1385,11 +1373,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's Active Directory forest includes thousands of user accounts.&lt;br/&gt;You have been informed that all network resources will be migrated to Azure. Thereafter, the on-premises data center will be retired.&lt;br/&gt;You are required to employ a strategy that reduces the effect on users, once the planned migration has been completed.&lt;br/&gt;Solution: You plan to sync all the Active Directory user accounts to Azure Active Directory (Azure AD).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's developers intend to deploy a large number of custom virtual machines on a weekly basis. They will also be removing these virtual machines during the same week it was deployed. Sixty percent of the virtual machines have Windows Server 2016 installed, while the other forty percent has Ubuntu Linux installed.&lt;br/&gt;You are required to make sure that the administrative effort, needed for this process, is reduced by employing a suitable Azure service.&lt;br/&gt;Solution: You recommend the use of Azure DevTest Labs.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1423,11 +1411,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are required to deploy an Artificial Intelligence (AI) solution in Azure.&lt;br/&gt;You want to make sure that you are able to build, test, and deploy predictive analytics for the solution.&lt;br/&gt;Solution: You should make use of Azure Machine Learning Studio.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Your company has virtual machines (VMs) hosted in Microsoft Azure. The VMs are located in a single Azure virtual network named VNet1.&lt;br/&gt;The company has users that work remotely. The remote workers require access to the VMs on VNet1.&lt;br/&gt;You need to provide access for the remote workers.&lt;br/&gt;What should you do?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1437,7 +1425,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1447,25 +1435,37 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Configure a Site-to-Site (S2S) VPN.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+          <t>Configure a VNet-toVNet VPN.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Configure a Point-to-Site (P2S) VPN.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Configure DirectAccess on a Windows Server 2012 server VM.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Configure a Multi-Site VPN</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's infrastructure includes a number of business units that each need a large number of various Azure resources for everyday operation.&lt;br/&gt;The resources required by each business unit are identical.&lt;br/&gt;You are required to sanction a strategy to create Azure resources automatically.&lt;br/&gt;Solution: You recommend that the Azure API Management service be included in the strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You have been informed by your superiors of the company's intentions to automate server deployment to Azure. There is, however, some concern that administrative credentials could be uncovered during this process.&lt;br/&gt;You are required to make sure that during the deployment, the administrative credentials are encrypted using a suitable Azure solution.&lt;br/&gt;Solution: You recommend the use of Azure Information Protection.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1499,11 +1499,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's infrastructure includes a number of business units that each need a large number of various Azure resources for everyday operation.&lt;br/&gt;The resources required by each business unit are identical.&lt;br/&gt;You are required to sanction a strategy to create Azure resources automatically.&lt;br/&gt;Solution: You recommend that management groups be included in the strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You have been informed by your superiors of the company's intentions to automate server deployment to Azure. There is, however, some concern that administrative credentials could be uncovered during this process.&lt;br/&gt;You are required to make sure that during the deployment, the administrative credentials are encrypted using a suitable Azure solution.&lt;br/&gt;Solution: You recommend the use of Azure Multi-Factor Authentication (MFA).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1537,49 +1537,37 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's infrastructure includes a number of business units that each need a large number of various Azure resources for everyday operation.&lt;br/&gt;The resources required by each business unit are identical.&lt;br/&gt;You are required to sanction a strategy to create Azure resources automatically.&lt;br/&gt;Solution: You recommend that the Azure Resource Manager templates be included in the strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>DRAG DROP -&lt;br/&gt;The company would like to develop a cloud solution by making use of Azure Government. Azure Government can only be used by certain types of clients to develop cloud solutions.&lt;br/&gt;Which of the following are the types of customers that can make use of Azure Government in this situation? Answer by dragging the correct option from the list to the answer area.&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="./page3_files/0002100001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_28.jpg</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_28.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying a critical LOB application, which will be installed on a virtual machine, to Azure.&lt;br/&gt;You are informed that the application deployment strategy should allow for a guaranteed availability of 99.99 percent. You need to make sure that the strategy requires as little virtual machines and availability zones as possible.&lt;br/&gt;Solution: You include two virtual machines and one availability zone in your strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company has an Azure Active Directory (Azure AD) environment. Users occasionally connect to Azure AD via the Internet.&lt;br/&gt;You have been tasked with making sure that users who connect to Azure AD via the internet from an unidentified IP address, are automatically encouraged to change passwords.&lt;br/&gt;Solution: You configure the use of Azure AD Identity Protection.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1589,7 +1577,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1613,11 +1601,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying a critical LOB application, which will be installed on a virtual machine, to Azure.&lt;br/&gt;You are informed that the application deployment strategy should allow for a guaranteed availability of 99.99 percent. You need to make sure that the strategy requires as little virtual machines and availability zones as possible.&lt;br/&gt;Solution: You include one virtual machine and two availability zones in your strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company has an Azure Active Directory (Azure AD) environment. Users occasionally connect to Azure AD via the Internet.&lt;br/&gt;You have been tasked with making sure that users who connect to Azure AD via the internet from an unidentified IP address, are automatically encouraged to change passwords.&lt;br/&gt;Solution: You configure the use of Azure AD Privileged Identity Management.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1651,11 +1639,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are tasked with deploying a critical LOB application, which will be installed on a virtual machine, to Azure.&lt;br/&gt;You are informed that the application deployment strategy should allow for a guaranteed availability of 99.99 percent. You need to make sure that the strategy requires as little virtual machines and availability zones as possible.&lt;br/&gt;Solution: You include two virtual machines and two availability zones in your strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are planning a strategy to deploy numerous web servers and database servers to Azure.&lt;br/&gt;This strategy should allow for connection types between the web servers and database servers to be controlled.&lt;br/&gt;Solution: You include network security groups (NSGs) in your strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1689,11 +1677,11 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's developers intend to deploy a large number of custom virtual machines on a weekly basis. They will also be removing these virtual machines during the same week it was deployed. Sixty percent of the virtual machines have Windows Server 2016 installed, while the other forty percent has Ubuntu Linux installed.&lt;br/&gt;You are required to make sure that the administrative effort, needed for this process, is reduced by employing a suitable Azure service.&lt;br/&gt;Solution: You recommend the use of Microsoft Managed Desktop.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are planning a strategy to deploy numerous web servers and database servers to Azure.&lt;br/&gt;This strategy should allow for connection types between the web servers and database servers to be controlled.&lt;br/&gt;Solution: You include a local network gateway in your strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1727,11 +1715,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's developers intend to deploy a large number of custom virtual machines on a weekly basis. They will also be removing these virtual machines during the same week it was deployed. Sixty percent of the virtual machines have Windows Server 2016 installed, while the other forty percent has Ubuntu Linux installed.&lt;br/&gt;You are required to make sure that the administrative effort, needed for this process, is reduced by employing a suitable Azure service.&lt;br/&gt;Solution: You recommend the use of Azure Reserved Virtual Machines (VM) Instances.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's Active Directory forest includes thousands of user accounts.&lt;br/&gt;You have been informed that all network resources will be migrated to Azure. Thereafter, the on-premises data center will be retired.&lt;br/&gt;You are required to employ a strategy that reduces the effect on users, once the planned migration has been completed.&lt;br/&gt;Solution: You plan to require Azure Multi-Factor Authentication (MFA).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1765,137 +1753,89 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's developers intend to deploy a large number of custom virtual machines on a weekly basis. They will also be removing these virtual machines during the same week it was deployed. Sixty percent of the virtual machines have Windows Server 2016 installed, while the other forty percent has Ubuntu Linux installed.&lt;br/&gt;You are required to make sure that the administrative effort, needed for this process, is reduced by employing a suitable Azure service.&lt;br/&gt;Solution: You recommend the use of Azure DevTest Labs.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page4_files/0002600001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_34.jpg</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_34.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Your company has virtual machines (VMs) hosted in Microsoft Azure. The VMs are located in a single Azure virtual network named VNet1.&lt;br/&gt;The company has users that work remotely. The remote workers require access to the VMs on VNet1.&lt;br/&gt;You need to provide access for the remote workers.&lt;br/&gt;What should you do?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page4_files/0002900001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_35.jpg</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Configure a Site-to-Site (S2S) VPN.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Configure a VNet-toVNet VPN.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Configure a Point-to-Site (P2S) VPN.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Configure DirectAccess on a Windows Server 2012 server VM.</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Configure a Multi-Site VPN</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_35.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You have been informed by your superiors of the company's intentions to automate server deployment to Azure. There is, however, some concern that administrative credentials could be uncovered during this process.&lt;br/&gt;You are required to make sure that during the deployment, the administrative credentials are encrypted using a suitable Azure solution.&lt;br/&gt;Solution: You recommend the use of Azure Information Protection.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page4_files/0003100001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_36.jpg</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_36.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You have been informed by your superiors of the company's intentions to automate server deployment to Azure. There is, however, some concern that administrative credentials could be uncovered during this process.&lt;br/&gt;You are required to make sure that during the deployment, the administrative credentials are encrypted using a suitable Azure solution.&lt;br/&gt;Solution: You recommend the use of Azure Multi-Factor Authentication (MFA).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>You have an on-premises network that contains several servers.&lt;br/&gt;You plan to migrate all the servers to Azure.&lt;br/&gt;You need to recommend a solution to ensure that some of the servers are available if a single Azure data center goes offline for an extended period.&lt;br/&gt;What should you include in the recommendation?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1905,7 +1845,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1915,36 +1855,44 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>fault tolerance</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+          <t>elasticity</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>scalability</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>low latency</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DRAG DROP -&lt;br/&gt;The company would like to develop a cloud solution by making use of Azure Government. Azure Government can only be used by certain types of clients to develop cloud solutions.&lt;br/&gt;Which of the following are the types of customers that can make use of Azure Government in this situation? Answer by dragging the correct option from the list to the answer area.&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="./page3_files/0002100001.png"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page4_files/0003400001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_28.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_38.jpg</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_38.jpg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -1955,11 +1903,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company has an Azure Active Directory (Azure AD) environment. Users occasionally connect to Azure AD via the Internet.&lt;br/&gt;You have been tasked with making sure that users who connect to Azure AD via the internet from an unidentified IP address, are automatically encouraged to change passwords.&lt;br/&gt;Solution: You configure the use of Azure AD Identity Protection.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>What are two characteristics of the public cloud? Each correct answer presents a complete solution.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1969,7 +1917,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D,E</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1979,63 +1927,63 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>dedicated hardware</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+          <t>unsecured connections</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>limited storage</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>metered pricing</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>self-service management</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company has an Azure Active Directory (Azure AD) environment. Users occasionally connect to Azure AD via the Internet.&lt;br/&gt;You have been tasked with making sure that users who connect to Azure AD via the internet from an unidentified IP address, are automatically encouraged to change passwords.&lt;br/&gt;Solution: You configure the use of Azure AD Privileged Identity Management.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page4_files/0003600001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_40.jpg</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_40.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are planning a strategy to deploy numerous web servers and database servers to Azure.&lt;br/&gt;This strategy should allow for connection types between the web servers and database servers to be controlled.&lt;br/&gt;Solution: You include network security groups (NSGs) in your strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;Your company plans to migrate all its data and resources to Azure.&lt;br/&gt;The company's migration plan states that only Platform as a Service (PaaS) solutions must be used in Azure.&lt;br/&gt;You need to deploy an Azure environment that meets the company migration plan.&lt;br/&gt;Solution: You create an Azure App Service and Azure SQL databases.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2069,11 +2017,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;You are planning a strategy to deploy numerous web servers and database servers to Azure.&lt;br/&gt;This strategy should allow for connection types between the web servers and database servers to be controlled.&lt;br/&gt;Solution: You include a local network gateway in your strategy.&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;Your company plans to migrate all its data and resources to Azure.&lt;br/&gt;The company's migration plan states that only Platform as a Service (PaaS) solutions must be used in Azure.&lt;br/&gt;You need to deploy an Azure environment that meets the company migration plan.&lt;br/&gt;Solution: You create an Azure App Service and Azure virtual machines that have Microsoft SQL Server installed.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2107,11 +2055,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Note: The question is included in a number of questions that depicts the identical set-up. However, every question has a distinctive result. Establish if the solution satisfies the requirements.&lt;br/&gt;Your company's Active Directory forest includes thousands of user accounts.&lt;br/&gt;You have been informed that all network resources will be migrated to Azure. Thereafter, the on-premises data center will be retired.&lt;br/&gt;You are required to employ a strategy that reduces the effect on users, once the planned migration has been completed.&lt;br/&gt;Solution: You plan to require Azure Multi-Factor Authentication (MFA).&lt;br/&gt;Does the solution meet the goal?&lt;br/&gt;</t>
+          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;Your company plans to migrate all its data and resources to Azure.&lt;br/&gt;The company's migration plan states that only Platform as a Service (PaaS) solutions must be used in Azure.&lt;br/&gt;You need to deploy an Azure environment that meets the company migration plan.&lt;br/&gt;Solution: You create an Azure App Service and Azure Storage accounts.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2145,74 +2093,114 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page4_files/0002600001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>Your company hosts an accounting application named App1 that is used by all the customers of the company.&lt;br/&gt;App1 has low usage during the first three weeks of each month and very high usage during the last week of each month.&lt;br/&gt;Which benefit of Azure Cloud Services supports cost management for this type of usage pattern?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_34.jpg</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>high availability</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>high latency</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>elasticity</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>load balancing</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page4_files/0002900001.png"/&gt;&lt;br/&gt;</t>
+          <t>You plan to migrate a web application to Azure. The web application is accessed by external users.&lt;br/&gt;You need to recommend a cloud deployment solution to minimize the amount of administrative effort used to manage the web application.&lt;br/&gt;What should you include in the recommendation?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_35.jpg</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Software as a Service (SaaS)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Platform as a Service (PaaS)</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Infrastructure as a Service (IaaS)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Database as a Service (DaaS)</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page4_files/0003100001.png"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;Which cloud deployment solution is used for Azure virtual machines and Azure SQL databases? To answer, select the appropriate options in the answer area.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page5_files/0004000001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_36.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_46.jpg</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_46.jpg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -2223,11 +2211,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>You have an on-premises network that contains several servers.&lt;br/&gt;You plan to migrate all the servers to Azure.&lt;br/&gt;You need to recommend a solution to ensure that some of the servers are available if a single Azure data center goes offline for an extended period.&lt;br/&gt;What should you include in the recommendation?&lt;br/&gt;</t>
+          <t>You have an on-premises network that contains 100 servers.&lt;br/&gt;You need to recommend a solution that provides additional resources to your users. The solution must minimize capital and operational expenditure costs.&lt;br/&gt;What should you include in the recommendation?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2237,7 +2225,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2247,44 +2235,44 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>fault tolerance</t>
+          <t>a complete migration to the public cloud</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>elasticity</t>
+          <t>an additional data center</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>scalability</t>
+          <t>a private cloud</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>low latency</t>
+          <t>a hybrid cloud</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page4_files/0003400001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page5_files/0004300001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_38.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_48.jpg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_48.jpg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2295,11 +2283,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What are two characteristics of the public cloud? Each correct answer presents a complete solution.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;</t>
+          <t>You plan to migrate several servers from an on-premises network to Azure.&lt;br/&gt;What is an advantage of using a public cloud service for the servers over an on-premises network?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2309,7 +2297,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>D,E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2319,48 +2307,44 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>dedicated hardware</t>
+          <t>The public cloud is owned by the public, NOT a private corporation</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>unsecured connections</t>
+          <t>The public cloud is a crowd-sourcing solution that provides corporations with the ability to enhance the cloud</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>limited storage</t>
+          <t>All public cloud resources can be freely accessed by every member of the public</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>metered pricing</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>self-service management</t>
-        </is>
-      </c>
+          <t>The public cloud is a shared entity whereby multiple corporations each use a portion of the resources in the cloud</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page4_files/0003600001.png"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page5_files/0004500001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_40.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_50.jpg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_50.jpg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2371,11 +2355,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;Your company plans to migrate all its data and resources to Azure.&lt;br/&gt;The company's migration plan states that only Platform as a Service (PaaS) solutions must be used in Azure.&lt;br/&gt;You need to deploy an Azure environment that meets the company migration plan.&lt;br/&gt;Solution: You create an Azure App Service and Azure SQL databases.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
+          <t>In which type of cloud model are all the hardware resources owned by a third-party and shared between multiple tenants?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2385,7 +2369,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2395,63 +2379,55 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>private</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;Your company plans to migrate all its data and resources to Azure.&lt;br/&gt;The company's migration plan states that only Platform as a Service (PaaS) solutions must be used in Azure.&lt;br/&gt;You need to deploy an Azure environment that meets the company migration plan.&lt;br/&gt;Solution: You create an Azure App Service and Azure virtual machines that have Microsoft SQL Server installed.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;&lt;br/&gt;&lt;img src="./page6_files/image545.png"/&gt;</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_52.jpg</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_52.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;Your company plans to migrate all its data and resources to Azure.&lt;br/&gt;The company's migration plan states that only Platform as a Service (PaaS) solutions must be used in Azure.&lt;br/&gt;You need to deploy an Azure environment that meets the company migration plan.&lt;br/&gt;Solution: You create an Azure App Service and Azure Storage accounts.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
+          <t>You have 1,000 virtual machines hosted on the Hyper-V hosts in a data center.&lt;br/&gt;You plan to migrate all the virtual machines to an Azure pay-as-you-go subscription.&lt;br/&gt;You need to identify which expenditure model to use for the planned Azure solution.&lt;br/&gt;Which expenditure model should you identify?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2461,7 +2437,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2471,128 +2447,96 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>operational</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+          <t>elastic</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>capital</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>scalable</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Your company hosts an accounting application named App1 that is used by all the customers of the company.&lt;br/&gt;App1 has low usage during the first three weeks of each month and very high usage during the last week of each month.&lt;br/&gt;Which benefit of Azure Cloud Services supports cost management for this type of usage pattern?&lt;br/&gt;</t>
+          <t>DRAG DROP -&lt;br/&gt;Match the Azure services benefits to the correct descriptions.&lt;br/&gt;Instructions: To answer, drag the appropriate benefit from the column on the left to its description on the right. Each benefit may be used once, more than once, or not at all.&lt;br/&gt;NOTE: Each correct match is worth one point.&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="./page6_files/0004800001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_54.jpg</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>high availability</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>high latency</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>elasticity</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>load balancing</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_54.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>You plan to migrate a web application to Azure. The web application is accessed by external users.&lt;br/&gt;You need to recommend a cloud deployment solution to minimize the amount of administrative effort used to manage the web application.&lt;br/&gt;What should you include in the recommendation?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page6_files/0005000001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_55.jpg</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Software as a Service (SaaS)</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Platform as a Service (PaaS)</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Infrastructure as a Service (IaaS)</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Database as a Service (DaaS)</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_55.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;Which cloud deployment solution is used for Azure virtual machines and Azure SQL databases? To answer, select the appropriate options in the answer area.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page5_files/0004000001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page6_files/0005200001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_46.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_56.jpg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_56.jpg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2603,11 +2547,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>You have an on-premises network that contains 100 servers.&lt;br/&gt;You need to recommend a solution that provides additional resources to your users. The solution must minimize capital and operational expenditure costs.&lt;br/&gt;What should you include in the recommendation?&lt;br/&gt;</t>
+          <t>Your company has an on-premises network that contains multiple servers.&lt;br/&gt;The company plans to reduce the following administrative responsibilities:&lt;br/&gt;✑ Backing up application data&lt;br/&gt;✑ Replacing failed server hardware&lt;br/&gt;✑ Managing physical server security&lt;br/&gt;✑ Updating server operating systems&lt;br/&gt;✑ Managing permissions to shared documents&lt;br/&gt;The company plans to migrate servers to Azure virtual machines.&lt;br/&gt;You need to identify which administrative responsibilities will be eliminated after the planned migration.&lt;br/&gt;Which two responsibilities should you identify? Each correct answer presents a complete solution.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2617,7 +2561,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2627,44 +2571,48 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>a complete migration to the public cloud</t>
+          <t>Replacing failed server hardware</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>an additional data center</t>
+          <t>Backing up application data</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>a private cloud</t>
+          <t>Managing physical server security</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>a hybrid cloud</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>Updating server operating systems</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Managing permissions to shared documents</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page5_files/0004300001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page6_files/0005500001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_48.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_58.jpg</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_58.jpg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -2675,11 +2623,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>You plan to migrate several servers from an on-premises network to Azure.&lt;br/&gt;What is an advantage of using a public cloud service for the servers over an on-premises network?&lt;br/&gt;</t>
+          <t>You plan to provision Infrastructure as a Service (IaaS) resources in Azure.&lt;br/&gt;Which resource is an example of IaaS?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2689,7 +2637,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2699,112 +2647,116 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>The public cloud is owned by the public, NOT a private corporation</t>
+          <t>an Azure web app</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>The public cloud is a crowd-sourcing solution that provides corporations with the ability to enhance the cloud</t>
+          <t>an Azure virtual machine</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>All public cloud resources can be freely accessed by every member of the public</t>
+          <t>an Azure logic app</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>The public cloud is a shared entity whereby multiple corporations each use a portion of the resources in the cloud</t>
+          <t>an Azure SQL database</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page5_files/0004500001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>To which cloud models can you deploy physical servers?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_50.jpg</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>private cloud and hybrid cloud only</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>private cloud only</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>private cloud, hybrid cloud and public cloud</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>hybrid cloud only</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>In which type of cloud model are all the hardware resources owned by a third-party and shared between multiple tenants?&lt;br/&gt;</t>
+          <t>DRAG DROP -&lt;br/&gt;Match the cloud model to the correct advantage.&lt;br/&gt;Instructions: To answer, drag the appropriate cloud model from the column on the left to its advantage on the right. Each cloud model may be used once, more than once, or not at all.&lt;br/&gt;NOTE: Each correct match is worth one point&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0005700001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_61.jpg</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>private</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_61.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;&lt;br/&gt;&lt;img src="./page6_files/image545.png"/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0005800001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_62.jpg</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_62.jpg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -2815,11 +2767,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>You have 1,000 virtual machines hosted on the Hyper-V hosts in a data center.&lt;br/&gt;You plan to migrate all the virtual machines to an Azure pay-as-you-go subscription.&lt;br/&gt;You need to identify which expenditure model to use for the planned Azure solution.&lt;br/&gt;Which expenditure model should you identify?&lt;br/&gt;</t>
+          <t>You have 50 virtual machines hosted on-premises and 50 virtual machines hosted in Azure. The on-premises virtual machines and the Azure virtual machines connect to each other.&lt;br/&gt;Which type of cloud model is this?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2839,44 +2791,40 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>operational</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>elastic</t>
+          <t>private</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>capital</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>scalable</t>
-        </is>
-      </c>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DRAG DROP -&lt;br/&gt;Match the Azure services benefits to the correct descriptions.&lt;br/&gt;Instructions: To answer, drag the appropriate benefit from the column on the left to its description on the right. Each benefit may be used once, more than once, or not at all.&lt;br/&gt;NOTE: Each correct match is worth one point.&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="./page6_files/0004800001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0006100001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_54.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_64.jpg</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_64.jpg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -2887,124 +2835,128 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page6_files/0005000001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;Your company plans to migrate all its data and resources to Azure.&lt;br/&gt;The company's migration plan states that only Platform as a Service (PaaS) solutions must be used in Azure.&lt;br/&gt;You need to deploy an Azure environment that meets the company migration plan.&lt;br/&gt;Solution: You create Azure virtual machines, Azure SQL databases, and Azure Storage accounts.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_55.jpg</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page6_files/0005200001.png"/&gt;&lt;br/&gt;</t>
+          <t>Your company plans to deploy several custom applications to Azure. The applications will provide invoicing services to the customers of the company. Each application will have several prerequisite applications and services installed.&lt;br/&gt;You need to recommend a cloud deployment solution for all the applications.&lt;br/&gt;What should you recommend?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_56.jpg</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Software as a Service (SaaS)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Platform as a Service (PaaS)</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Infrastructure as a Service (laaS)</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Your company has an on-premises network that contains multiple servers.&lt;br/&gt;The company plans to reduce the following administrative responsibilities:&lt;br/&gt;✑ Backing up application data&lt;br/&gt;✑ Replacing failed server hardware&lt;br/&gt;✑ Managing physical server security&lt;br/&gt;✑ Updating server operating systems&lt;br/&gt;✑ Managing permissions to shared documents&lt;br/&gt;The company plans to migrate servers to Azure virtual machines.&lt;br/&gt;You need to identify which administrative responsibilities will be eliminated after the planned migration.&lt;br/&gt;Which two responsibilities should you identify? Each correct answer presents a complete solution.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0006500001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>A,C</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_67.jpg</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Replacing failed server hardware</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Backing up application data</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Managing physical server security</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Updating server operating systems</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Managing permissions to shared documents</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_67.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page6_files/0005500001.png"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0006700001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_58.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_68.jpg</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_68.jpg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -3015,114 +2967,74 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>You plan to provision Infrastructure as a Service (IaaS) resources in Azure.&lt;br/&gt;Which resource is an example of IaaS?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0006800001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_69.jpg</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>an Azure web app</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>an Azure virtual machine</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>an Azure logic app</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>an Azure SQL database</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_69.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>To which cloud models can you deploy physical servers?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0006900001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_70.jpg</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>private cloud and hybrid cloud only</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>private cloud only</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>private cloud, hybrid cloud and public cloud</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>hybrid cloud only</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_70.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DRAG DROP -&lt;br/&gt;Match the cloud model to the correct advantage.&lt;br/&gt;Instructions: To answer, drag the appropriate cloud model from the column on the left to its advantage on the right. Each cloud model may be used once, more than once, or not at all.&lt;br/&gt;NOTE: Each correct match is worth one point&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0005700001.png"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0007100001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_61.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_71.jpg</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_71.jpg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -3133,22 +3045,22 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0005800001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;&lt;br/&gt;&lt;img src="./page8_files/image543.png"/&gt;</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_62.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_72.jpg</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_72.jpg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -3159,11 +3071,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>You have 50 virtual machines hosted on-premises and 50 virtual machines hosted in Azure. The on-premises virtual machines and the Azure virtual machines connect to each other.&lt;br/&gt;Which type of cloud model is this?&lt;br/&gt;</t>
+          <t>Your company plans to migrate all its data and resources to Azure.&lt;br/&gt;The company's migration plan states that only Platform as a Service (PaaS) solutions must be used in Azure.&lt;br/&gt;You need to deploy an Azure environment that meets the company's migration plan.&lt;br/&gt;What should you create?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3173,7 +3085,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3183,172 +3095,188 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>Azure virtual machines, Azure SQL databases, and Azure Storage accounts.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>private</t>
+          <t>an Azure App Service and Azure virtual machines that have Microsoft SQL Server installed.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>public</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>an Azure App Service and Azure SQL databases.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Azure storage accounts and web server in Azure virtual machines.</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0006100001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>What does a customer provide in a software as a service (SaaS) model?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_64.jpg</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>application data</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>data storage</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>compute resources</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>application software</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;Your company plans to migrate all its data and resources to Azure.&lt;br/&gt;The company's migration plan states that only Platform as a Service (PaaS) solutions must be used in Azure.&lt;br/&gt;You need to deploy an Azure environment that meets the company migration plan.&lt;br/&gt;Solution: You create Azure virtual machines, Azure SQL databases, and Azure Storage accounts.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0007400001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_75.jpg</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_75.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Your company plans to deploy several custom applications to Azure. The applications will provide invoicing services to the customers of the company. Each application will have several prerequisite applications and services installed.&lt;br/&gt;You need to recommend a cloud deployment solution for all the applications.&lt;br/&gt;What should you recommend?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0007500001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_76.jpg</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Software as a Service (SaaS)</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Platform as a Service (PaaS)</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Infrastructure as a Service (laaS)</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_76.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0006500001.png"/&gt;&lt;br/&gt;</t>
+          <t>What is the first stage in the Microsoft Cloud Adoption Framework for Azure?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_67.jpg</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Adopt the cloud.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Make a plan.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Ready your organization.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Define your strategy.</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0006700001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0007800001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_68.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_78.jpg</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_78.jpg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -3359,22 +3287,22 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0006800001.png"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0007900001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_69.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_79.jpg</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_79.jpg</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3385,22 +3313,22 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page7_files/0006900001.png"/&gt;&lt;br/&gt;</t>
+          <t>DRAG DROP -&lt;br/&gt;Match the cloud computing benefits to the correct descriptions.&lt;br/&gt;To answer, drag the appropriate benefit from the column on the left to its description on the right. Each benefit may be used once, more than once, or not at all.&lt;br/&gt;NOTE: Each correct match is worth one point.&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0008100001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_70.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_80.jpg</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_80.jpg</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -3411,22 +3339,22 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0007100001.png"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page9_files/0008200001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_71.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_81.jpg</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_81.jpg</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -3437,22 +3365,22 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;&lt;br/&gt;&lt;img src="./page8_files/image543.png"/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;You plan to use Azure to host two apps named App1 and App2. The apps must meet the following requirements:&lt;br/&gt;✑ You must be able to modify the code of App1.&lt;br/&gt;✑ Administrative effort to manage the operating system of App1 must be minimized.&lt;br/&gt;✑ App2 must run interactively with the operating system of the server.&lt;br/&gt;Which type of cloud service should you use for each app? To answer, select the appropriate options in the answer area.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page9_files/0008300004.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_82.jpg</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_82.jpg</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -3463,11 +3391,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Your company plans to migrate all its data and resources to Azure.&lt;br/&gt;The company's migration plan states that only Platform as a Service (PaaS) solutions must be used in Azure.&lt;br/&gt;You need to deploy an Azure environment that meets the company's migration plan.&lt;br/&gt;What should you create?&lt;br/&gt;</t>
+          <t>You have an accounting application named App1 that uses a legacy database.&lt;br/&gt;You plan to move App1 to the cloud.&lt;br/&gt;Which service model should you use?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3477,7 +3405,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3487,33 +3415,29 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Azure virtual machines, Azure SQL databases, and Azure Storage accounts.</t>
+          <t>platform as a service (PaaS)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>an Azure App Service and Azure virtual machines that have Microsoft SQL Server installed.</t>
+          <t>infrastructure as a service (IaaS)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>an Azure App Service and Azure SQL databases.</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Azure storage accounts and web server in Azure virtual machines.</t>
-        </is>
-      </c>
+          <t>software as a service (SaaS)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>What does a customer provide in a software as a service (SaaS) model?&lt;br/&gt;</t>
+          <t>Microsoft 365 is an example of which cloud service model?</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3523,7 +3447,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3533,44 +3457,40 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>application data</t>
+          <t>infrastructure as a service (IaaS)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>data storage</t>
+          <t>platform as a service (PaaS)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>compute resources</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>application software</t>
-        </is>
-      </c>
+          <t>software as a service (SaaS)</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0007400001.png"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page9_files/0008700001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_75.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_85.jpg</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_85.jpg</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -3581,22 +3501,22 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0007500001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page9_files/0008800002.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_76.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_86.jpg</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_86.jpg</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -3607,11 +3527,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>What is the first stage in the Microsoft Cloud Adoption Framework for Azure?&lt;br/&gt;</t>
+          <t>Which cloud computing model includes on-premises and cloud-based resources?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3621,7 +3541,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3631,44 +3551,40 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Adopt the cloud.</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Make a plan.</t>
+          <t>public</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Ready your organization.</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Define your strategy.</t>
-        </is>
-      </c>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0007800001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page9_files/0009000001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_78.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_88.jpg</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_88.jpg</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -3679,22 +3595,22 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0007900001.png"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;&lt;br/&gt;&lt;img src="./page9_files/image541.png"/&gt;</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_79.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_89.jpg</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_89.jpg</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -3705,293 +3621,357 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DRAG DROP -&lt;br/&gt;Match the cloud computing benefits to the correct descriptions.&lt;br/&gt;To answer, drag the appropriate benefit from the column on the left to its description on the right. Each benefit may be used once, more than once, or not at all.&lt;br/&gt;NOTE: Each correct match is worth one point.&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="./page8_files/0008100001.png"/&gt;&lt;br/&gt;</t>
+          <t>Which term represents the ability to increase the computing capacity of a virtual machine by adding memory or CPUs?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_80.jpg</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>agility</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>vertical scaling</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>horizontal scaling</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>elasticity</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page9_files/0008200001.png"/&gt;&lt;br/&gt;</t>
+          <t>What are two benefits of cloud computing? Each correct answer presents a complete solution.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_81.jpg</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>A,D</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>enables the rapid provisioning of resources</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>has increased administrative complexity</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>has the same configuration options as on-premises</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>shifts capital expenditures (CAPEX) to operating expenditures (OPEX)</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;You plan to use Azure to host two apps named App1 and App2. The apps must meet the following requirements:&lt;br/&gt;✑ You must be able to modify the code of App1.&lt;br/&gt;✑ Administrative effort to manage the operating system of App1 must be minimized.&lt;br/&gt;✑ App2 must run interactively with the operating system of the server.&lt;br/&gt;Which type of cloud service should you use for each app? To answer, select the appropriate options in the answer area.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page9_files/0008300004.png"/&gt;&lt;br/&gt;</t>
+          <t>What is a feature of an Azure virtual network?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_82.jpg</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>resource cost analysis</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>packet inspection</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>geo-redundancy</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>isolation and segmentation</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>You have an accounting application named App1 that uses a legacy database.&lt;br/&gt;You plan to move App1 to the cloud.&lt;br/&gt;Which service model should you use?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page10_files/0009500001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_93.jpg</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>platform as a service (PaaS)</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>infrastructure as a service (IaaS)</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>software as a service (SaaS)</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_93.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Microsoft 365 is an example of which cloud service model?</t>
+          <t>DRAG DROP -&lt;br/&gt;Match the cloud computing benefits to the appropriate descriptions.&lt;br/&gt;To answer, drag the appropriate benefit from the column on the left to its description on the right. Each benefit may be used once, more than once, or not at all.&lt;br/&gt;NOTE: Each correct match is worth one point.&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="./page10_files/0009600001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_94.jpg</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>infrastructure as a service (IaaS)</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>platform as a service (PaaS)</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>software as a service (SaaS)</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_94.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page9_files/0008700001.png"/&gt;&lt;br/&gt;</t>
+          <t>Which cloud computing benefit provides continuous user access to a cloud-based application with minimal downtime?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_85.jpg</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>agility</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>scalability</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>elasticity</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>high availability</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page9_files/0008800002.png"/&gt;&lt;br/&gt;</t>
+          <t>You need to identify the type of failure for which an Azure Availability Zone can be used to protect access to Azure services.&lt;br/&gt;What should you identify?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_86.jpg</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>a physical server failure</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>an Azure region failure</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>a storage failure</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>an Azure data center failure</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Which cloud computing model includes on-premises and cloud-based resources?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;You plan to extend your company's network to Azure.&lt;br/&gt;The network contains a VPN appliance that uses an IP address of 131.107.200.1.&lt;br/&gt;You need to create an Azure resource that defines the VPN appliance in Azure.&lt;br/&gt;Which Azure resource should you create? To answer, select the appropriate resource in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page10_files/0009900001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_97.jpg</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>private</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_97.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page9_files/0009000001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;You plan to deploy several Azure virtual machines.&lt;br/&gt;You need to ensure that the services running on the virtual machines are available if a single data center fails.&lt;br/&gt;Solution: You deploy the virtual machines to two or more resource groups.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_88.jpg</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;&lt;br/&gt;&lt;img src="./page9_files/image541.png"/&gt;</t>
+          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;You plan to deploy several Azure virtual machines.&lt;br/&gt;You need to ensure that the services running on the virtual machines are available if a single data center fails.&lt;br/&gt;Solution: You deploy the virtual machines to a scale set.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3999,129 +3979,125 @@
           <t>No image</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Which term represents the ability to increase the computing capacity of a virtual machine by adding memory or CPUs?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page10_files/0010300001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_100.jpg</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_100.jpg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>This question requires that you evaluate the underlined text to determine if it is correct.&lt;br/&gt;Resource groups provide organizations with the ability to manage the compliance of Azure resources across multiple subscriptions.&lt;br/&gt;Instructions: Review the underlined text. If it makes the statement correct, select `No change is needed`. If the statement is incorrect, select the answer choice that makes the statement correct.&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>agility</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>vertical scaling</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>horizontal scaling</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>elasticity</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>91</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>What are two benefits of cloud computing? Each correct answer presents a complete solution.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No change is needed</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Management groups</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Azure policies</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Azure App Service plans</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Your company plans to migrate to Azure.&lt;br/&gt;The company has several departments. All the Azure resources used by each department will be managed by a department administrator.&lt;br/&gt;What are two possible techniques to segment Azure for the departments? Each correct answer presents a complete solution.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>A,D</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>enables the rapid provisioning of resources</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>has increased administrative complexity</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>has the same configuration options as on-premises</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>shifts capital expenditures (CAPEX) to operating expenditures (OPEX)</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>92</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>What is a feature of an Azure virtual network?&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>No image</t>
@@ -4129,44 +4105,46 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>resource cost analysis</t>
+          <t>multiple subscriptions</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>packet inspection</t>
+          <t>multiple Azure Active Directory (Azure AD) directories</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>geo-redundancy</t>
+          <t>multiple regions</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>isolation and segmentation</t>
+          <t>multiple resource groups</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>93</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;Select the answer that correctly completes the sentence.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page10_files/0009500001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page11_files/0010600001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_93.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_103.jpg</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_103.jpg</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -4176,23 +4154,25 @@
       <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>94</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DRAG DROP -&lt;br/&gt;Match the cloud computing benefits to the appropriate descriptions.&lt;br/&gt;To answer, drag the appropriate benefit from the column on the left to its description on the right. Each benefit may be used once, more than once, or not at all.&lt;br/&gt;NOTE: Each correct match is worth one point.&lt;br/&gt;Select and Place:&lt;br/&gt;&lt;img class="in-exam-image" src="./page10_files/0009600001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page11_files/0010800001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_94.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_104.jpg</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_104.jpg</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -4202,12 +4182,14 @@
       <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>95</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Which cloud computing benefit provides continuous user access to a cloud-based application with minimal downtime?&lt;br/&gt;</t>
+          <t>You have an Azure environment that contains multiple Azure virtual machines.&lt;br/&gt;You plan to implement a solution that enables the client computers on your on-premises network to communicate to the Azure virtual machines.&lt;br/&gt;You need to recommend which Azure resources must be created for the planned solution.&lt;br/&gt;Which two Azure resources should you include in the recommendation? Each correct answer presents part of the solution.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4217,55 +4199,61 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>A,D</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>a virtual network gateway</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>a load balancer</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>an application gateway</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>a virtual network</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>a gateway subnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>You attempt to create several managed Microsoft SQL Server instances in an Azure environment and receive a message that you must increase your Azure subscription limits.&lt;br/&gt;What should you do to increase the limits?&lt;br/&gt;</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>agility</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>scalability</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>elasticity</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>high availability</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>96</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>You need to identify the type of failure for which an Azure Availability Zone can be used to protect access to Azure services.&lt;br/&gt;What should you identify?&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>No image</t>
@@ -4273,44 +4261,46 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>a physical server failure</t>
+          <t>Create a service health alert</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>an Azure region failure</t>
+          <t>Upgrade your support plan</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>a storage failure</t>
+          <t>Modify an Azure policy</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>an Azure data center failure</t>
+          <t>Create a new support request</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>97</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;You plan to extend your company's network to Azure.&lt;br/&gt;The network contains a VPN appliance that uses an IP address of 131.107.200.1.&lt;br/&gt;You need to create an Azure resource that defines the VPN appliance in Azure.&lt;br/&gt;Which Azure resource should you create? To answer, select the appropriate resource in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page10_files/0009900001.png"/&gt;&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page11_files/0011100001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_97.jpg</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_107.jpg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_107.jpg</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -4320,490 +4310,108 @@
       <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>98</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;You plan to deploy several Azure virtual machines.&lt;br/&gt;You need to ensure that the services running on the virtual machines are available if a single data center fails.&lt;br/&gt;Solution: You deploy the virtual machines to two or more resource groups.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page11_files/0011300001.png"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_108.jpg</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_108.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>99</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Note: This question is part of a series of questions that present the same scenario. Each question in the series contains a unique solution that might meet the stated goals. Some question sets might have more than one correct solution, while others might not have a correct solution.&lt;br/&gt;After you answer a question in this section, you will NOT be able to return to it. As a result, these questions will not appear in the review screen.&lt;br/&gt;You plan to deploy several Azure virtual machines.&lt;br/&gt;You need to ensure that the services running on the virtual machines are available if a single data center fails.&lt;br/&gt;Solution: You deploy the virtual machines to a scale set.&lt;br/&gt;Does this meet the goal?&lt;br/&gt;</t>
+          <t>HOTSPOT -&lt;br/&gt;You plan to create an Azure virtual machine.&lt;br/&gt;You need to identify which storage service must be used to store the unmanaged data disks of the virtual machine.&lt;br/&gt;What should you identify? To answer, select the appropriate service in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page11_files/0011400001.jpg"/&gt;&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_109.jpg</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\answer_109.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>100</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page10_files/0010300001.jpg"/&gt;&lt;br/&gt;</t>
+          <t>Your company plans to move several servers to Azure.&lt;br/&gt;The company's compliance policy states that a server named FinServer must be on a separate network segment.&lt;br/&gt;You are evaluating which Azure services can be used to meet the compliance policy requirements.&lt;br/&gt;Which Azure solution should you recommend?&lt;br/&gt;</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_100.jpg</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>No image</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>No image</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>a resource group for FinServer and another resource group for all the other servers</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>a virtual network for FinServer and another virtual network for all the other servers</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>a VPN for FinServer and a virtual network gateway for each other server</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>one resource group for all the servers and a resource lock for FinServer</t>
+        </is>
+      </c>
       <c r="J111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>This question requires that you evaluate the underlined text to determine if it is correct.&lt;br/&gt;Resource groups provide organizations with the ability to manage the compliance of Azure resources across multiple subscriptions.&lt;br/&gt;Instructions: Review the underlined text. If it makes the statement correct, select `No change is needed`. If the statement is incorrect, select the answer choice that makes the statement correct.&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>No change is needed</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Management groups</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Azure policies</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Azure App Service plans</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Your company plans to migrate to Azure.&lt;br/&gt;The company has several departments. All the Azure resources used by each department will be managed by a department administrator.&lt;br/&gt;What are two possible techniques to segment Azure for the departments? Each correct answer presents a complete solution.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>A,D</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>multiple subscriptions</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>multiple Azure Active Directory (Azure AD) directories</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>multiple regions</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>multiple resource groups</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page11_files/0010600001.jpg"/&gt;&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_103.jpg</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>HOTSPOT -&lt;br/&gt;To complete the sentence, select the appropriate option in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page11_files/0010800001.png"/&gt;&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_104.jpg</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>You have an Azure environment that contains multiple Azure virtual machines.&lt;br/&gt;You plan to implement a solution that enables the client computers on your on-premises network to communicate to the Azure virtual machines.&lt;br/&gt;You need to recommend which Azure resources must be created for the planned solution.&lt;br/&gt;Which two Azure resources should you include in the recommendation? Each correct answer presents part of the solution.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>A,D</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>a virtual network gateway</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>a load balancer</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>an application gateway</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>a virtual network</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>a gateway subnet</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>You attempt to create several managed Microsoft SQL Server instances in an Azure environment and receive a message that you must increase your Azure subscription limits.&lt;br/&gt;What should you do to increase the limits?&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Create a service health alert</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Upgrade your support plan</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Modify an Azure policy</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Create a new support request</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page11_files/0011100001.jpg"/&gt;&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_107.jpg</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>HOTSPOT -&lt;br/&gt;For each of the following statements, select Yes if the statement is true. Otherwise, select No.&lt;br/&gt;NOTE: Each correct selection is worth one point.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page11_files/0011300001.png"/&gt;&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_108.jpg</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>HOTSPOT -&lt;br/&gt;You plan to create an Azure virtual machine.&lt;br/&gt;You need to identify which storage service must be used to store the unmanaged data disks of the virtual machine.&lt;br/&gt;What should you identify? To answer, select the appropriate service in the answer area.&lt;br/&gt;Hot Area:&lt;br/&gt;&lt;img class="in-exam-image" src="./page11_files/0011400001.jpg"/&gt;&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>D:/CS/MAIN/DataScrap/AZ-900/Images\question_109.jpg</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Your company plans to move several servers to Azure.&lt;br/&gt;The company's compliance policy states that a server named FinServer must be on a separate network segment.&lt;br/&gt;You are evaluating which Azure services can be used to meet the compliance policy requirements.&lt;br/&gt;Which Azure solution should you recommend?&lt;br/&gt;</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>No image</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>a resource group for FinServer and another resource group for all the other servers</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>a virtual network for FinServer and another virtual network for all the other servers</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>a VPN for FinServer and a virtual network gateway for each other server</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>one resource group for all the servers and a resource lock for FinServer</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
